--- a/medicine/Psychotrope/Café_de_la_Concorde/Café_de_la_Concorde.xlsx
+++ b/medicine/Psychotrope/Café_de_la_Concorde/Café_de_la_Concorde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Concorde</t>
+          <t>Café_de_la_Concorde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Café de la Concorde, 17 rue de la Concorde, à Toulouse, dans le quartier des Chalets, date du milieu du XIXe siècle [1]. 
-Réservé aux notables à la fin du XIXe siècle, il devint un dancing dans les années folles. Il est aujourd'hui très apprécié pour son décor "Front Popu"[2], sa terrasse et ses concerts. Sa façade est classée.
+Le Café de la Concorde, 17 rue de la Concorde, à Toulouse, dans le quartier des Chalets, date du milieu du XIXe siècle . 
+Réservé aux notables à la fin du XIXe siècle, il devint un dancing dans les années folles. Il est aujourd'hui très apprécié pour son décor "Front Popu", sa terrasse et ses concerts. Sa façade est classée.
 </t>
         </is>
       </c>
